--- a/raw_data/20200818_saline/20200818_Sensor3_Test_30.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_30.xlsx
@@ -1,960 +1,1376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12238C92-CAF2-44B4-8C9C-F3C628FC4F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>26659.382333</v>
+        <v>26659.382333000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.405384</v>
+        <v>7.4053839999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.470000</v>
+        <v>1144.47</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.221000</v>
+        <v>-261.221</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>26670.100881</v>
+        <v>26670.100880999998</v>
       </c>
       <c r="G2" s="1">
-        <v>7.408361</v>
+        <v>7.4083610000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.120000</v>
+        <v>1166.1199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.004000</v>
+        <v>-219.00399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>26680.561009</v>
+        <v>26680.561009000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.411267</v>
+        <v>7.4112669999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.690000</v>
+        <v>-151.69</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>26690.851508</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.414125</v>
+        <v>7.4141250000000003</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.168000</v>
+        <v>-129.16800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>26701.109272</v>
+        <v>26701.109272000002</v>
       </c>
       <c r="V2" s="1">
-        <v>7.416975</v>
+        <v>7.4169749999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.854000</v>
+        <v>-107.854</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>26711.173128</v>
+        <v>26711.173127999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.419770</v>
+        <v>7.4197699999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.270100</v>
+        <v>-90.270099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>26721.442796</v>
+        <v>26721.442795999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.422623</v>
+        <v>7.4226229999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.569800</v>
+        <v>-85.569800000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>26731.549742</v>
+        <v>26731.549741999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.425430</v>
+        <v>7.4254300000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.569900</v>
+        <v>-88.569900000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>26742.130896</v>
+        <v>26742.130895999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.428370</v>
+        <v>7.4283700000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.213000</v>
+        <v>-100.21299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>26753.177794</v>
+        <v>26753.177793999999</v>
       </c>
       <c r="AU2" s="1">
         <v>7.431438</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.940000</v>
+        <v>1244.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.239000</v>
+        <v>-119.239</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>26764.274820</v>
+        <v>26764.274819999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.434521</v>
+        <v>7.4345210000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1253.190000</v>
+        <v>1253.19</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.531000</v>
+        <v>-136.53100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>26775.165446</v>
+        <v>26775.165445999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.437546</v>
+        <v>7.4375460000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1292.610000</v>
+        <v>1292.6099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.849000</v>
+        <v>-217.84899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>26786.548165</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.440708</v>
+        <v>7.4407079999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1361.450000</v>
+        <v>1361.45</v>
       </c>
       <c r="BL2" s="1">
-        <v>-353.350000</v>
+        <v>-353.35</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>26797.605977</v>
+        <v>26797.605976999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.443779</v>
+        <v>7.4437790000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1474.790000</v>
+        <v>1474.79</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-573.524000</v>
+        <v>-573.524</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>26809.442472</v>
+        <v>26809.442471999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.447067</v>
+        <v>7.4470669999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1605.910000</v>
+        <v>1605.91</v>
       </c>
       <c r="BV2" s="1">
-        <v>-822.187000</v>
+        <v>-822.18700000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>26820.184825</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.450051</v>
+        <v>7.4500510000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1755.660000</v>
+        <v>1755.66</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.660000</v>
+        <v>-1092.6600000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>26831.096314</v>
+        <v>26831.096313999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.453082</v>
+        <v>7.4530820000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2167.240000</v>
+        <v>2167.2399999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1749.160000</v>
+        <v>-1749.16</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>26660.074481</v>
       </c>
       <c r="B3" s="1">
-        <v>7.405576</v>
+        <v>7.4055759999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.150000</v>
+        <v>1144.1500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.207000</v>
+        <v>-261.20699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>26670.508630</v>
+        <v>26670.50863</v>
       </c>
       <c r="G3" s="1">
-        <v>7.408475</v>
+        <v>7.4084750000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.470000</v>
+        <v>1166.47</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.415000</v>
+        <v>-219.41499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>26680.977649</v>
       </c>
       <c r="L3" s="1">
-        <v>7.411383</v>
+        <v>7.4113829999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.230000</v>
+        <v>1194.23</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.442000</v>
+        <v>-151.44200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>26691.194739</v>
+        <v>26691.194738999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.414221</v>
+        <v>7.4142210000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.630000</v>
+        <v>1201.6300000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.232000</v>
+        <v>-129.232</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>26701.452999</v>
+        <v>26701.452999000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.417070</v>
+        <v>7.4170699999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.902000</v>
+        <v>-107.902</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>26711.555054</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.419876</v>
+        <v>7.4198760000000004</v>
       </c>
       <c r="AB3" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.287300</v>
+        <v>-90.287300000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>26721.874778</v>
+        <v>26721.874778000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.422743</v>
+        <v>7.4227429999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1220.610000</v>
+        <v>1220.6099999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.566600</v>
+        <v>-85.566599999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>26731.977790</v>
+        <v>26731.977790000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.425549</v>
+        <v>7.4255490000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1227.560000</v>
+        <v>1227.56</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.572200</v>
+        <v>-88.572199999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>26742.567872</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.428491</v>
+        <v>7.4284910000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1235.230000</v>
+        <v>1235.23</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.211000</v>
+        <v>-100.211</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>26753.544337</v>
+        <v>26753.544336999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.431540</v>
+        <v>7.43154</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>26764.636868</v>
+        <v>26764.636868000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.434621</v>
+        <v>7.4346209999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.542000</v>
+        <v>-136.542</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>26775.535491</v>
+        <v>26775.535490999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.437649</v>
+        <v>7.4376490000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1292.620000</v>
+        <v>1292.6199999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-217.830000</v>
+        <v>-217.83</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>26787.302549</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.440917</v>
+        <v>7.4409169999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1361.460000</v>
+        <v>1361.46</v>
       </c>
       <c r="BL3" s="1">
-        <v>-353.325000</v>
+        <v>-353.32499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>26798.023110</v>
+        <v>26798.023109999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.443895</v>
+        <v>7.4438950000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1474.800000</v>
+        <v>1474.8</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-573.573000</v>
+        <v>-573.57299999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>26809.892342</v>
+        <v>26809.892341999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.447192</v>
+        <v>7.4471920000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1605.800000</v>
+        <v>1605.8</v>
       </c>
       <c r="BV3" s="1">
-        <v>-822.310000</v>
+        <v>-822.31</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>26820.659496</v>
@@ -963,1026 +1379,1026 @@
         <v>7.450183</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1755.610000</v>
+        <v>1755.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.650000</v>
+        <v>-1092.6500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>26831.662746</v>
+        <v>26831.662746000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.453240</v>
+        <v>7.4532400000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2167.760000</v>
+        <v>2167.7600000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1748.600000</v>
+        <v>-1748.6</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>26660.430910</v>
+        <v>26660.430909999999</v>
       </c>
       <c r="B4" s="1">
-        <v>7.405675</v>
+        <v>7.4056749999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.390000</v>
+        <v>1144.3900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.088000</v>
+        <v>-261.08800000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>26670.850831</v>
       </c>
       <c r="G4" s="1">
-        <v>7.408570</v>
+        <v>7.4085700000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.260000</v>
+        <v>1166.26</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.083000</v>
+        <v>-219.083</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>26681.327328</v>
+        <v>26681.327327999999</v>
       </c>
       <c r="L4" s="1">
-        <v>7.411480</v>
+        <v>7.4114800000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.900000</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.494000</v>
+        <v>-151.494</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>26691.540451</v>
+        <v>26691.540451000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.414317</v>
+        <v>7.4143169999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.129000</v>
+        <v>-129.12899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>26701.985240</v>
+        <v>26701.985240000002</v>
       </c>
       <c r="V4" s="1">
-        <v>7.417218</v>
+        <v>7.4172180000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.903000</v>
+        <v>-107.90300000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>26711.984552</v>
+        <v>26711.984552000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.419996</v>
+        <v>7.4199960000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.355600</v>
+        <v>-90.355599999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>26722.164938</v>
+        <v>26722.164938000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.422824</v>
+        <v>7.4228240000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1220.620000</v>
+        <v>1220.6199999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.562900</v>
+        <v>-85.562899999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>26732.310116</v>
+        <v>26732.310116000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.425642</v>
+        <v>7.4256419999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1227.490000</v>
+        <v>1227.49</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.550800</v>
+        <v>-88.550799999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>26742.927004</v>
+        <v>26742.927004000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.428591</v>
+        <v>7.4285909999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.218000</v>
+        <v>-100.218</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>26753.907442</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.431641</v>
+        <v>7.4316409999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.258000</v>
+        <v>-119.258</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>26764.999442</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.434722</v>
+        <v>7.4347219999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.546000</v>
+        <v>-136.54599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>26776.255155</v>
+        <v>26776.255154999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.437849</v>
+        <v>7.4378489999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1292.570000</v>
+        <v>1292.57</v>
       </c>
       <c r="BG4" s="1">
-        <v>-217.819000</v>
+        <v>-217.81899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>26787.705299</v>
+        <v>26787.705299000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.441029</v>
+        <v>7.4410290000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-353.324000</v>
+        <v>-353.32400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>26798.443223</v>
+        <v>26798.443222999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.444012</v>
+        <v>7.4440119999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-573.602000</v>
+        <v>-573.60199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>26810.315442</v>
+        <v>26810.315441999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.447310</v>
+        <v>7.4473099999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1605.810000</v>
+        <v>1605.81</v>
       </c>
       <c r="BV4" s="1">
-        <v>-822.265000</v>
+        <v>-822.26499999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>26821.429783</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.450397</v>
+        <v>7.4503969999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1755.530000</v>
+        <v>1755.53</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.770000</v>
+        <v>-1092.77</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>26832.509074</v>
+        <v>26832.509074000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.453475</v>
+        <v>7.4534750000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2167.180000</v>
+        <v>2167.1799999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1750.310000</v>
+        <v>-1750.31</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>26660.770637</v>
+        <v>26660.770637000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.405770</v>
+        <v>7.4057700000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.510000</v>
+        <v>1144.51</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.058000</v>
+        <v>-261.05799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>26671.201007</v>
       </c>
       <c r="G5" s="1">
-        <v>7.408667</v>
+        <v>7.4086670000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.990000</v>
+        <v>1165.99</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.291000</v>
+        <v>-218.291</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>26681.674560</v>
+        <v>26681.674559999999</v>
       </c>
       <c r="L5" s="1">
-        <v>7.411576</v>
+        <v>7.4115760000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.050000</v>
+        <v>-152.05000000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>26691.961555</v>
+        <v>26691.961555000002</v>
       </c>
       <c r="Q5" s="1">
         <v>7.414434</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.136000</v>
+        <v>-129.136</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>26702.137973</v>
+        <v>26702.137973000001</v>
       </c>
       <c r="V5" s="1">
-        <v>7.417261</v>
+        <v>7.4172609999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.862000</v>
+        <v>-107.86199999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>26712.273752</v>
+        <v>26712.273752000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.420076</v>
+        <v>7.4200759999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.178000</v>
+        <v>-90.177999999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>26722.506682</v>
+        <v>26722.506681999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.422919</v>
+        <v>7.4229190000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.571400</v>
+        <v>-85.571399999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>26732.657308</v>
+        <v>26732.657308000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.425738</v>
+        <v>7.4257379999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.593000</v>
+        <v>-88.593000000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>26743.288097</v>
+        <v>26743.288097000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.428691</v>
+        <v>7.4286909999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.189000</v>
+        <v>-100.18899999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>26754.637556</v>
+        <v>26754.637556000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.431844</v>
+        <v>7.4318439999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.265000</v>
+        <v>-119.265</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>26765.712690</v>
+        <v>26765.71269</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.434920</v>
+        <v>7.43492</v>
       </c>
       <c r="BA5" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.565000</v>
+        <v>-136.565</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>26776.617730</v>
+        <v>26776.617730000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.437949</v>
+        <v>7.4379489999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1292.580000</v>
+        <v>1292.58</v>
       </c>
       <c r="BG5" s="1">
-        <v>-217.852000</v>
+        <v>-217.852</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>26788.080773</v>
+        <v>26788.080773000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.441134</v>
+        <v>7.4411339999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL5" s="1">
-        <v>-353.357000</v>
+        <v>-353.35700000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>26798.841508</v>
+        <v>26798.841508000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.444123</v>
+        <v>7.4441230000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1474.780000</v>
+        <v>1474.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-573.593000</v>
+        <v>-573.59299999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>26811.067861</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.447519</v>
+        <v>7.4475189999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1605.800000</v>
+        <v>1605.8</v>
       </c>
       <c r="BV5" s="1">
-        <v>-822.383000</v>
+        <v>-822.38300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>26821.552327</v>
+        <v>26821.552327000001</v>
       </c>
       <c r="BY5" s="1">
         <v>7.450431</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1755.700000</v>
+        <v>1755.7</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>26832.734600</v>
+        <v>26832.7346</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.453537</v>
+        <v>7.4535369999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2169.370000</v>
+        <v>2169.37</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1750.480000</v>
+        <v>-1750.48</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>26661.113899</v>
       </c>
       <c r="B6" s="1">
-        <v>7.405865</v>
+        <v>7.4058650000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.227000</v>
+        <v>-261.22699999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>26671.644925</v>
+        <v>26671.644925000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.408790</v>
+        <v>7.4087899999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.350000</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.289000</v>
+        <v>-218.28899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>26682.090703</v>
+        <v>26682.090703000002</v>
       </c>
       <c r="L6" s="1">
-        <v>7.411692</v>
+        <v>7.4116920000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.914000</v>
+        <v>-151.91399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>26692.238350</v>
+        <v>26692.23835</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.414511</v>
+        <v>7.4145110000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.155000</v>
+        <v>-129.155</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>26702.483717</v>
+        <v>26702.483716999999</v>
       </c>
       <c r="V6" s="1">
         <v>7.417357</v>
       </c>
       <c r="W6" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.856000</v>
+        <v>-107.85599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>26712.624891</v>
+        <v>26712.624890999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.420174</v>
+        <v>7.4201740000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.221700</v>
+        <v>-90.221699999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>26722.851402</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.423014</v>
+        <v>7.4230140000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.519100</v>
+        <v>-85.519099999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26733.006526</v>
+        <v>26733.006526000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.425835</v>
+        <v>7.4258350000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.569600</v>
+        <v>-88.569599999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>26744.006765</v>
+        <v>26744.006764999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.428891</v>
+        <v>7.4288910000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.207000</v>
+        <v>-100.20699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>26755.030847</v>
+        <v>26755.030847000002</v>
       </c>
       <c r="AU6" s="1">
         <v>7.431953</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.940000</v>
+        <v>1244.94</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.252000</v>
+        <v>-119.252</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>26766.064353</v>
+        <v>26766.064353000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.435018</v>
+        <v>7.4350180000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1253.240000</v>
+        <v>1253.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.537000</v>
+        <v>-136.53700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>26776.978322</v>
+        <v>26776.978321999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.438050</v>
+        <v>7.4380499999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.829000</v>
+        <v>-217.82900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>26788.763047</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.441323</v>
+        <v>7.4413229999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL6" s="1">
-        <v>-353.309000</v>
+        <v>-353.30900000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>26799.584980</v>
+        <v>26799.58498</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.444329</v>
+        <v>7.4443289999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1474.820000</v>
+        <v>1474.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-573.562000</v>
+        <v>-573.56200000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>26811.180452</v>
+        <v>26811.180452000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.447550</v>
+        <v>7.4475499999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>1605.830000</v>
+        <v>1605.83</v>
       </c>
       <c r="BV6" s="1">
-        <v>-822.409000</v>
+        <v>-822.40899999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>26821.977366</v>
+        <v>26821.977365999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.450549</v>
+        <v>7.4505489999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1755.640000</v>
+        <v>1755.64</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.660000</v>
+        <v>-1092.6600000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>26833.266807</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.453685</v>
+        <v>7.4536850000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2168.270000</v>
+        <v>2168.27</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1748.840000</v>
+        <v>-1748.84</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>26661.548858</v>
+        <v>26661.548857999998</v>
       </c>
       <c r="B7" s="1">
-        <v>7.405986</v>
+        <v>7.4059860000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.280000</v>
+        <v>1144.28</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.385000</v>
+        <v>-261.38499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>26671.894909</v>
+        <v>26671.894908999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.408860</v>
+        <v>7.4088599999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.740000</v>
+        <v>1165.74</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.524000</v>
+        <v>-219.524</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>26682.389797</v>
       </c>
       <c r="L7" s="1">
-        <v>7.411775</v>
+        <v>7.4117749999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.624000</v>
+        <v>-151.624</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>26692.586017</v>
+        <v>26692.586017000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.414607</v>
+        <v>7.4146070000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.183000</v>
+        <v>-129.18299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>26702.826918</v>
+        <v>26702.826917999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.417452</v>
+        <v>7.4174519999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.870000</v>
+        <v>-107.87</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>26712.974598</v>
+        <v>26712.974598000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.420271</v>
+        <v>7.4202709999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.348300</v>
+        <v>-90.348299999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>26723.538858</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.423205</v>
+        <v>7.4232050000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.546000</v>
+        <v>-85.546000000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>26733.703869</v>
+        <v>26733.703869000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.426029</v>
+        <v>7.4260289999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1227.530000</v>
+        <v>1227.53</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.573200</v>
+        <v>-88.5732</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>26744.368845</v>
+        <v>26744.368845000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.428991</v>
+        <v>7.4289909999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.217000</v>
+        <v>-100.217</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>26755.394447</v>
+        <v>26755.394446999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.432054</v>
+        <v>7.4320539999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.288000</v>
+        <v>-119.288</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>26766.435856</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.435121</v>
+        <v>7.4351209999999996</v>
       </c>
       <c r="BA7" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.535000</v>
+        <v>-136.535</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>26777.644451</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.438235</v>
+        <v>7.4382349999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1292.560000</v>
+        <v>1292.56</v>
       </c>
       <c r="BG7" s="1">
-        <v>-217.836000</v>
+        <v>-217.83600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>26788.882339</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.441356</v>
+        <v>7.4413559999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL7" s="1">
-        <v>-353.335000</v>
+        <v>-353.33499999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>26800.053220</v>
+        <v>26800.053220000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.444459</v>
+        <v>7.4444590000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-573.610000</v>
+        <v>-573.61</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>26811.612997</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.447670</v>
+        <v>7.4476699999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1605.740000</v>
+        <v>1605.74</v>
       </c>
       <c r="BV7" s="1">
-        <v>-822.523000</v>
+        <v>-822.52300000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>26822.398965</v>
@@ -1991,2825 +2407,2825 @@
         <v>7.450666</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1755.620000</v>
+        <v>1755.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.780000</v>
+        <v>-1092.78</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>26833.804967</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.453835</v>
+        <v>7.4538349999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2167.920000</v>
+        <v>2167.92</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1750.920000</v>
+        <v>-1750.92</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>26661.833100</v>
+        <v>26661.8331</v>
       </c>
       <c r="B8" s="1">
-        <v>7.406065</v>
+        <v>7.4060649999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.410000</v>
+        <v>1144.4100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.063000</v>
+        <v>-261.06299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>26672.239647</v>
+        <v>26672.239646999999</v>
       </c>
       <c r="G8" s="1">
-        <v>7.408955</v>
+        <v>7.4089549999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.220000</v>
+        <v>1166.22</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.504000</v>
+        <v>-219.50399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>26682.735508</v>
+        <v>26682.735508000002</v>
       </c>
       <c r="L8" s="1">
-        <v>7.411871</v>
+        <v>7.4118709999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.500000</v>
+        <v>1193.5</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.828000</v>
+        <v>-151.828</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>26692.935697</v>
+        <v>26692.935697000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.414704</v>
+        <v>7.4147040000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.680000</v>
+        <v>1201.68</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.192000</v>
+        <v>-129.19200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>26703.512917</v>
       </c>
       <c r="V8" s="1">
-        <v>7.417642</v>
+        <v>7.4176419999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.878000</v>
+        <v>-107.878</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>26713.670454</v>
+        <v>26713.670453999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.420464</v>
+        <v>7.4204639999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.331300</v>
+        <v>-90.331299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>26723.883112</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.423301</v>
+        <v>7.4233010000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.564500</v>
+        <v>-85.564499999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>26734.097196</v>
+        <v>26734.097195999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.426138</v>
+        <v>7.4261379999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1227.510000</v>
+        <v>1227.51</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.566900</v>
+        <v>-88.566900000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>26744.727950</v>
+        <v>26744.72795</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.429091</v>
+        <v>7.4290909999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1235.230000</v>
+        <v>1235.23</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.233000</v>
+        <v>-100.233</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>26756.063518</v>
+        <v>26756.063517999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.432240</v>
+        <v>7.4322400000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.253000</v>
+        <v>-119.253</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>26767.101984</v>
+        <v>26767.101984000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.435306</v>
+        <v>7.4353059999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>1253.240000</v>
+        <v>1253.24</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.535000</v>
+        <v>-136.535</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>26778.090880</v>
+        <v>26778.09088</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.438359</v>
+        <v>7.4383590000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1292.620000</v>
+        <v>1292.6199999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.833000</v>
+        <v>-217.833</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>26789.227553</v>
+        <v>26789.227553000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>7.441452</v>
       </c>
       <c r="BK8" s="1">
-        <v>1361.460000</v>
+        <v>1361.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-353.378000</v>
+        <v>-353.37799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>26800.469874</v>
+        <v>26800.469873999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.444575</v>
+        <v>7.4445750000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1474.800000</v>
+        <v>1474.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-573.592000</v>
+        <v>-573.59199999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>26812.023653</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.447784</v>
+        <v>7.4477840000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1605.690000</v>
+        <v>1605.69</v>
       </c>
       <c r="BV8" s="1">
-        <v>-822.505000</v>
+        <v>-822.505</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>26822.841399</v>
+        <v>26822.841399000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.450789</v>
+        <v>7.4507890000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1755.650000</v>
+        <v>1755.65</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.780000</v>
+        <v>-1092.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>26834.346134</v>
+        <v>26834.346133999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.453985</v>
+        <v>7.4539850000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>2169.760000</v>
+        <v>2169.7600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1749.470000</v>
+        <v>-1749.47</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>26662.173818</v>
+        <v>26662.173817999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.406159</v>
+        <v>7.4061589999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.240000</v>
+        <v>1144.24</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.142000</v>
+        <v>-261.142</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>26672.583853</v>
       </c>
       <c r="G9" s="1">
-        <v>7.409051</v>
+        <v>7.4090509999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.510000</v>
+        <v>1166.51</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.508000</v>
+        <v>-218.50800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>26683.080190</v>
+        <v>26683.080190000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.411967</v>
+        <v>7.4119669999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.180000</v>
+        <v>1194.18</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.642000</v>
+        <v>-151.642</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>26693.631585</v>
+        <v>26693.631584999999</v>
       </c>
       <c r="Q9" s="1">
         <v>7.414898</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.159000</v>
+        <v>-129.15899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>26703.861074</v>
       </c>
       <c r="V9" s="1">
-        <v>7.417739</v>
+        <v>7.4177390000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.861000</v>
+        <v>-107.861</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>26714.018680</v>
+        <v>26714.018680000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.420561</v>
+        <v>7.4205610000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1216.270000</v>
+        <v>1216.27</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.203700</v>
+        <v>-90.203699999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>26724.231307</v>
+        <v>26724.231306999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.423398</v>
+        <v>7.4233979999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.548600</v>
+        <v>-85.548599999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>26734.752939</v>
+        <v>26734.752939000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.426320</v>
+        <v>7.4263199999999996</v>
       </c>
       <c r="AL9" s="1">
-        <v>1227.510000</v>
+        <v>1227.51</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.588100</v>
+        <v>-88.588099999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>26745.397550</v>
+        <v>26745.397550000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.429277</v>
+        <v>7.4292769999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.224000</v>
+        <v>-100.224</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>26756.488093</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.432358</v>
+        <v>7.4323579999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.255000</v>
+        <v>-119.255</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>26767.507711</v>
+        <v>26767.507710999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.435419</v>
+        <v>7.4354189999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1253.200000</v>
+        <v>1253.2</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.547000</v>
+        <v>-136.547</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>26778.452928</v>
+        <v>26778.452927999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.438459</v>
+        <v>7.4384589999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.838000</v>
+        <v>-217.83799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>26789.603025</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.441556</v>
+        <v>7.4415560000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL9" s="1">
-        <v>-353.335000</v>
+        <v>-353.33499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>26800.901858</v>
+        <v>26800.901858000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.444695</v>
+        <v>7.4446950000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1474.770000</v>
+        <v>1474.77</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-573.631000</v>
+        <v>-573.63099999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>26812.465091</v>
+        <v>26812.465090999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.447907</v>
+        <v>7.4479069999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1605.610000</v>
+        <v>1605.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-822.633000</v>
+        <v>-822.63300000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>26823.264980</v>
+        <v>26823.26498</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.450907</v>
+        <v>7.4509069999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1755.650000</v>
+        <v>1755.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>26834.888229</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.454136</v>
+        <v>7.4541360000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2166.940000</v>
+        <v>2166.94</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1749.930000</v>
+        <v>-1749.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>26662.512585</v>
       </c>
       <c r="B10" s="1">
-        <v>7.406253</v>
+        <v>7.4062530000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.570000</v>
+        <v>1144.57</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.189000</v>
+        <v>-261.18900000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>26673.272300</v>
+        <v>26673.272300000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.409242</v>
+        <v>7.4092419999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.300000</v>
+        <v>1166.3</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.116000</v>
+        <v>-219.11600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>26683.774590</v>
+        <v>26683.774590000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.412160</v>
+        <v>7.4121600000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.631000</v>
+        <v>-151.631</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>26693.981300</v>
+        <v>26693.981299999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.414995</v>
+        <v>7.4149950000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.640000</v>
+        <v>1201.6400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.083000</v>
+        <v>-129.083</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>26704.205828</v>
+        <v>26704.205827999998</v>
       </c>
       <c r="V10" s="1">
-        <v>7.417835</v>
+        <v>7.4178350000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.836000</v>
+        <v>-107.836</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>26714.364852</v>
+        <v>26714.364851999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.420657</v>
+        <v>7.4206570000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.350800</v>
+        <v>-90.350800000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>26724.884007</v>
+        <v>26724.884007000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.423579</v>
+        <v>7.4235790000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.520900</v>
+        <v>-85.520899999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>26735.107081</v>
+        <v>26735.107080999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.426419</v>
+        <v>7.4264190000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.600200</v>
+        <v>-88.600200000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>26745.841498</v>
+        <v>26745.841498000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.429400</v>
+        <v>7.4294000000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.200000</v>
+        <v>-100.2</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>26756.867069</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.432463</v>
+        <v>7.4324630000000003</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.252000</v>
+        <v>-119.252</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>26767.867807</v>
+        <v>26767.867806999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.435519</v>
+        <v>7.4355190000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1253.240000</v>
+        <v>1253.24</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.548000</v>
+        <v>-136.548</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>26778.816528</v>
+        <v>26778.816527999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.438560</v>
+        <v>7.4385599999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.858000</v>
+        <v>-217.858</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>26790.020129</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.441672</v>
+        <v>7.4416719999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1361.500000</v>
+        <v>1361.5</v>
       </c>
       <c r="BL10" s="1">
-        <v>-353.329000</v>
+        <v>-353.32900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>26801.289234</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.444803</v>
+        <v>7.4448030000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-573.622000</v>
+        <v>-573.62199999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>26812.882259</v>
+        <v>26812.882259000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.448023</v>
+        <v>7.4480230000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1605.610000</v>
+        <v>1605.61</v>
       </c>
       <c r="BV10" s="1">
-        <v>-822.654000</v>
+        <v>-822.654</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>26823.687572</v>
+        <v>26823.687571999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.451024</v>
+        <v>7.4510240000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1755.910000</v>
+        <v>1755.91</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.540000</v>
+        <v>-1092.54</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>26835.428372</v>
+        <v>26835.428371999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.454286</v>
+        <v>7.4542859999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>2169.480000</v>
+        <v>2169.48</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1750.700000</v>
+        <v>-1750.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>26663.194616</v>
+        <v>26663.194616000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.406443</v>
+        <v>7.4064430000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.430000</v>
+        <v>1144.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.419000</v>
+        <v>-261.41899999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>26673.617547</v>
+        <v>26673.617547000002</v>
       </c>
       <c r="G11" s="1">
         <v>7.409338</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.460000</v>
+        <v>1166.46</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.368000</v>
+        <v>-219.36799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>26684.117324</v>
+        <v>26684.117323999999</v>
       </c>
       <c r="L11" s="1">
         <v>7.412255</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.748000</v>
+        <v>-151.74799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>26694.333456</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.415093</v>
+        <v>7.4150929999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.108000</v>
+        <v>-129.108</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>26704.864978</v>
+        <v>26704.864978000001</v>
       </c>
       <c r="V11" s="1">
         <v>7.418018</v>
       </c>
       <c r="W11" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.838000</v>
+        <v>-107.83799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>26715.028501</v>
+        <v>26715.028501000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.420841</v>
+        <v>7.4208410000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.293200</v>
+        <v>-90.293199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>26725.261958</v>
+        <v>26725.261957999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.423684</v>
+        <v>7.4236839999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>1220.650000</v>
+        <v>1220.6500000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.554500</v>
+        <v>-85.554500000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>26735.457225</v>
+        <v>26735.457224999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.426516</v>
+        <v>7.4265160000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.577100</v>
+        <v>-88.577100000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>26746.201101</v>
+        <v>26746.201100999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.429500</v>
+        <v>7.4295</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.210000</v>
+        <v>-100.21</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>26757.217214</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.432560</v>
+        <v>7.4325599999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.950000</v>
+        <v>1244.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.278000</v>
+        <v>-119.27800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>26768.301310</v>
+        <v>26768.301309999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.435639</v>
+        <v>7.4356390000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.547000</v>
+        <v>-136.547</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>26779.246065</v>
+        <v>26779.246064999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.438679</v>
+        <v>7.4386789999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.846000</v>
+        <v>-217.846</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>26790.365344</v>
+        <v>26790.365344000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.441768</v>
+        <v>7.4417679999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1361.480000</v>
+        <v>1361.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-353.393000</v>
+        <v>-353.39299999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>26801.686563</v>
+        <v>26801.686562999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.444913</v>
+        <v>7.4449129999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1474.810000</v>
+        <v>1474.81</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-573.591000</v>
+        <v>-573.59100000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>26813.296882</v>
+        <v>26813.296881999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.448138</v>
+        <v>7.4481380000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1605.480000</v>
+        <v>1605.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-822.713000</v>
+        <v>-822.71299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>26824.136948</v>
+        <v>26824.136947999999</v>
       </c>
       <c r="BY11" s="1">
         <v>7.451149</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1755.640000</v>
+        <v>1755.64</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.720000</v>
+        <v>-1092.72</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>26835.966533</v>
+        <v>26835.966532999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.454435</v>
+        <v>7.4544350000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2168.490000</v>
+        <v>2168.4899999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1748.530000</v>
+        <v>-1748.53</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>26663.537320</v>
+        <v>26663.537319999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.406538</v>
+        <v>7.4065380000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.360000</v>
+        <v>1144.3599999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.155000</v>
+        <v>-261.15499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>26673.960778</v>
+        <v>26673.960778000001</v>
       </c>
       <c r="G12" s="1">
-        <v>7.409434</v>
+        <v>7.4094340000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.020000</v>
+        <v>1166.02</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.170000</v>
+        <v>-218.17</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>26684.467041</v>
       </c>
       <c r="L12" s="1">
-        <v>7.412352</v>
+        <v>7.4123520000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.647000</v>
+        <v>-151.64699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>26694.985166</v>
+        <v>26694.985165999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.415274</v>
+        <v>7.4152740000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.199000</v>
+        <v>-129.19900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>26705.236481</v>
       </c>
       <c r="V12" s="1">
-        <v>7.418121</v>
+        <v>7.4181210000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.866000</v>
+        <v>-107.866</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>26715.413395</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.420948</v>
+        <v>7.4209480000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.278600</v>
+        <v>-90.278599999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>26725.602712</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.423779</v>
+        <v>7.4237789999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.553400</v>
+        <v>-85.553399999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>26735.804920</v>
+        <v>26735.804919999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.426612</v>
+        <v>7.4266120000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.600600</v>
+        <v>-88.6006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>26746.560666</v>
+        <v>26746.560666000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.429600</v>
+        <v>7.4295999999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.203000</v>
+        <v>-100.203</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>26757.627404</v>
+        <v>26757.627403999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.432674</v>
+        <v>7.4326739999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.264000</v>
+        <v>-119.264</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>26768.584031</v>
+        <v>26768.584030999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.435718</v>
+        <v>7.4357179999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1253.230000</v>
+        <v>1253.23</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.546000</v>
+        <v>-136.54599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>26779.536223</v>
+        <v>26779.536222999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.438760</v>
+        <v>7.4387600000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1292.610000</v>
+        <v>1292.6099999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.856000</v>
+        <v>-217.85599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>26790.754208</v>
+        <v>26790.754207999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.441876</v>
+        <v>7.4418759999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1361.460000</v>
+        <v>1361.46</v>
       </c>
       <c r="BL12" s="1">
-        <v>-353.348000</v>
+        <v>-353.34800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>26802.107633</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.445030</v>
+        <v>7.44503</v>
       </c>
       <c r="BP12" s="1">
-        <v>1474.820000</v>
+        <v>1474.82</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-573.601000</v>
+        <v>-573.601</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>26813.724931</v>
+        <v>26813.724931000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.448257</v>
+        <v>7.4482569999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1605.430000</v>
+        <v>1605.43</v>
       </c>
       <c r="BV12" s="1">
-        <v>-822.601000</v>
+        <v>-822.601</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>26824.566483</v>
+        <v>26824.566482999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.451268</v>
+        <v>7.4512679999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1755.730000</v>
+        <v>1755.73</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.690000</v>
+        <v>-1092.69</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>26836.506708</v>
+        <v>26836.506708000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.454585</v>
+        <v>7.4545849999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2167.520000</v>
+        <v>2167.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1751.010000</v>
+        <v>-1751.01</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>26663.879097</v>
+        <v>26663.879097000001</v>
       </c>
       <c r="B13" s="1">
-        <v>7.406633</v>
+        <v>7.4066330000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.430000</v>
+        <v>1144.43</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>26674.616953</v>
+        <v>26674.616953000001</v>
       </c>
       <c r="G13" s="1">
-        <v>7.409616</v>
+        <v>7.4096159999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.340000</v>
+        <v>1166.3399999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.528000</v>
+        <v>-219.52799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>26685.137099</v>
       </c>
       <c r="L13" s="1">
-        <v>7.412538</v>
+        <v>7.4125379999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.230000</v>
+        <v>1194.23</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.872000</v>
+        <v>-151.87200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>26695.379518</v>
+        <v>26695.379518000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.415383</v>
+        <v>7.4153830000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.200000</v>
+        <v>-129.19999999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>26705.578262</v>
+        <v>26705.578261999999</v>
       </c>
       <c r="V13" s="1">
-        <v>7.418216</v>
+        <v>7.4182160000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.691000</v>
+        <v>-107.691</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>26715.758611</v>
+        <v>26715.758611000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.421044</v>
+        <v>7.4210440000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.380000</v>
+        <v>-90.38</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>26725.950405</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.423875</v>
+        <v>7.4238749999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1220.640000</v>
+        <v>1220.6400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.551700</v>
+        <v>-85.551699999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>26736.232968</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.426731</v>
+        <v>7.4267310000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.590600</v>
+        <v>-88.590599999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>26746.983754</v>
+        <v>26746.983754000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.429718</v>
+        <v>7.4297180000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1235.220000</v>
+        <v>1235.22</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.206000</v>
+        <v>-100.206</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>26757.944881</v>
+        <v>26757.944880999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.432762</v>
+        <v>7.4327620000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.247000</v>
+        <v>-119.247</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>26768.944125</v>
+        <v>26768.944125000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.435818</v>
+        <v>7.4358180000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1253.200000</v>
+        <v>1253.2</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.558000</v>
+        <v>-136.55799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>26779.897278</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.438860</v>
+        <v>7.43886</v>
       </c>
       <c r="BF13" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.856000</v>
+        <v>-217.85599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>26791.130176</v>
+        <v>26791.130175999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.441981</v>
+        <v>7.4419810000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1361.500000</v>
+        <v>1361.5</v>
       </c>
       <c r="BL13" s="1">
-        <v>-353.319000</v>
+        <v>-353.31900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>26802.922596</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.445256</v>
+        <v>7.4452559999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1474.810000</v>
+        <v>1474.81</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-573.588000</v>
+        <v>-573.58799999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>26814.157937</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.448377</v>
+        <v>7.4483769999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1605.480000</v>
+        <v>1605.48</v>
       </c>
       <c r="BV13" s="1">
-        <v>-822.664000</v>
+        <v>-822.66399999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>26824.987090</v>
+        <v>26824.987089999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.451385</v>
+        <v>7.4513850000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1755.710000</v>
+        <v>1755.71</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>26837.044834</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.454735</v>
+        <v>7.4547350000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>2170.390000</v>
+        <v>2170.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1749.990000</v>
+        <v>-1749.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>26664.537254</v>
+        <v>26664.537253999999</v>
       </c>
       <c r="B14" s="1">
-        <v>7.406816</v>
+        <v>7.4068160000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.360000</v>
+        <v>1144.3599999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.251000</v>
+        <v>-261.25099999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>26674.992958</v>
+        <v>26674.992957999999</v>
       </c>
       <c r="G14" s="1">
-        <v>7.409720</v>
+        <v>7.4097200000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.280000</v>
+        <v>1166.28</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.112000</v>
+        <v>-219.11199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>26685.500171</v>
       </c>
       <c r="L14" s="1">
-        <v>7.412639</v>
+        <v>7.4126390000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.610000</v>
+        <v>1193.6099999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.634000</v>
+        <v>-151.63399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>26695.726718</v>
+        <v>26695.726718000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.415480</v>
+        <v>7.4154799999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.207000</v>
+        <v>-129.20699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>26705.923441</v>
+        <v>26705.923440999999</v>
       </c>
       <c r="V14" s="1">
-        <v>7.418312</v>
+        <v>7.4183120000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.868000</v>
+        <v>-107.86799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>26716.110274</v>
+        <v>26716.110273999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.421142</v>
+        <v>7.4211419999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.208400</v>
+        <v>-90.208399999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>26726.371013</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.423992</v>
+        <v>7.4239920000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.628200</v>
+        <v>-85.628200000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>26736.514201</v>
+        <v>26736.514201000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.426810</v>
+        <v>7.4268099999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.571400</v>
+        <v>-88.571399999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>26747.281353</v>
+        <v>26747.281352999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.429800</v>
+        <v>7.4298000000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.203000</v>
+        <v>-100.203</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>26758.310907</v>
+        <v>26758.310906999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.432864</v>
+        <v>7.4328640000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.235000</v>
+        <v>-119.235</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>26769.302764</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.435917</v>
+        <v>7.4359169999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1253.230000</v>
+        <v>1253.23</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.531000</v>
+        <v>-136.53100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>26780.261343</v>
+        <v>26780.261342999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.438961</v>
+        <v>7.4389609999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1292.580000</v>
+        <v>1292.58</v>
       </c>
       <c r="BG14" s="1">
-        <v>-217.859000</v>
+        <v>-217.85900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>26791.882607</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.442190</v>
+        <v>7.4421900000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-353.368000</v>
+        <v>-353.36799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>26803.341713</v>
+        <v>26803.341713000002</v>
       </c>
       <c r="BO14" s="1">
         <v>7.445373</v>
       </c>
       <c r="BP14" s="1">
-        <v>1474.850000</v>
+        <v>1474.85</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-573.600000</v>
+        <v>-573.6</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>26814.568661</v>
+        <v>26814.568661000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.448491</v>
+        <v>7.4484909999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1605.370000</v>
+        <v>1605.37</v>
       </c>
       <c r="BV14" s="1">
-        <v>-822.620000</v>
+        <v>-822.62</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>26825.410706</v>
+        <v>26825.410705999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.451503</v>
+        <v>7.4515029999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1755.670000</v>
+        <v>1755.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.620000</v>
+        <v>-1092.6199999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>26837.897959</v>
+        <v>26837.897959000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.454972</v>
+        <v>7.4549719999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>2167.820000</v>
+        <v>2167.8200000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1751.440000</v>
+        <v>-1751.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>26664.909254</v>
+        <v>26664.909253999998</v>
       </c>
       <c r="B15" s="1">
-        <v>7.406919</v>
+        <v>7.4069190000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.410000</v>
+        <v>1144.4100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.240000</v>
+        <v>-261.24</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>26675.342600</v>
+        <v>26675.3426</v>
       </c>
       <c r="G15" s="1">
-        <v>7.409817</v>
+        <v>7.4098170000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.480000</v>
+        <v>1166.48</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.450000</v>
+        <v>-218.45</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>26685.846907</v>
+        <v>26685.846906999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.412735</v>
+        <v>7.4127349999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.970000</v>
+        <v>1193.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.611000</v>
+        <v>-151.61099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>26696.077356</v>
+        <v>26696.077356000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.415577</v>
+        <v>7.4155769999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.137000</v>
+        <v>-129.137</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>26706.344048</v>
+        <v>26706.344047999999</v>
       </c>
       <c r="V15" s="1">
-        <v>7.418429</v>
+        <v>7.4184289999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1208.820000</v>
+        <v>1208.82</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.839000</v>
+        <v>-107.839</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>26716.539810</v>
+        <v>26716.539809999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.421261</v>
+        <v>7.4212610000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>1216.220000</v>
+        <v>1216.22</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.411300</v>
+        <v>-90.411299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>26726.645300</v>
+        <v>26726.6453</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.424068</v>
+        <v>7.4240680000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.561200</v>
+        <v>-85.561199999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>26736.859911</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.426906</v>
+        <v>7.4269059999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.579400</v>
+        <v>-88.579400000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>26747.642937</v>
+        <v>26747.642937000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.429901</v>
+        <v>7.4299010000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.215000</v>
+        <v>-100.215</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>26758.678427</v>
+        <v>26758.678426999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.432966</v>
+        <v>7.4329660000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.246000</v>
+        <v>-119.246</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>26770.018955</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.436116</v>
+        <v>7.4361160000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1253.200000</v>
+        <v>1253.2</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.552000</v>
+        <v>-136.55199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>26780.984014</v>
+        <v>26780.984014000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.439162</v>
+        <v>7.4391619999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.842000</v>
+        <v>-217.84200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>26792.254606</v>
+        <v>26792.254605999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.442293</v>
+        <v>7.4422930000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1361.480000</v>
+        <v>1361.48</v>
       </c>
       <c r="BL15" s="1">
-        <v>-353.344000</v>
+        <v>-353.34399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>26803.737983</v>
+        <v>26803.737982999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.445483</v>
+        <v>7.4454830000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1474.850000</v>
+        <v>1474.85</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-573.663000</v>
+        <v>-573.66300000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>26814.999188</v>
+        <v>26814.999188000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.448611</v>
+        <v>7.4486109999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1605.280000</v>
+        <v>1605.28</v>
       </c>
       <c r="BV15" s="1">
-        <v>-822.739000</v>
+        <v>-822.73900000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>26826.132390</v>
+        <v>26826.132389999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.451703</v>
+        <v>7.4517030000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1755.640000</v>
+        <v>1755.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.870000</v>
+        <v>-1092.8699999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>26838.124626</v>
+        <v>26838.124626000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.455035</v>
+        <v>7.4550349999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>2167.900000</v>
+        <v>2167.9</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1751.360000</v>
+        <v>-1751.36</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>26665.248554</v>
+        <v>26665.248554000002</v>
       </c>
       <c r="B16" s="1">
-        <v>7.407013</v>
+        <v>7.4070130000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.640000</v>
+        <v>1144.6400000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.179000</v>
+        <v>-261.17899999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>26675.686825</v>
+        <v>26675.686825000001</v>
       </c>
       <c r="G16" s="1">
-        <v>7.409913</v>
+        <v>7.4099130000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.520000</v>
+        <v>1166.52</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.727000</v>
+        <v>-218.727</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>26686.269466</v>
+        <v>26686.269466000002</v>
       </c>
       <c r="L16" s="1">
-        <v>7.412853</v>
+        <v>7.4128530000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.507000</v>
+        <v>-151.50700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>26696.508380</v>
+        <v>26696.508379999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.415697</v>
+        <v>7.4156969999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.710000</v>
+        <v>1201.71</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.110000</v>
+        <v>-129.11000000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>26706.611391</v>
+        <v>26706.611390999999</v>
       </c>
       <c r="V16" s="1">
-        <v>7.418503</v>
+        <v>7.4185030000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>1208.990000</v>
+        <v>1208.99</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.783000</v>
+        <v>-107.783</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>26716.819355</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.421339</v>
+        <v>7.4213389999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.229600</v>
+        <v>-90.229600000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>26726.989028</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.424164</v>
+        <v>7.4241640000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.612000</v>
+        <v>-85.611999999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>26737.210086</v>
+        <v>26737.210085999999</v>
       </c>
       <c r="AK16" s="1">
         <v>7.427003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1227.520000</v>
+        <v>1227.52</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.592100</v>
+        <v>-88.592100000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>26748.001544</v>
+        <v>26748.001543999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.430000</v>
+        <v>7.43</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.228000</v>
+        <v>-100.22799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>26759.407547</v>
+        <v>26759.407546999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.433169</v>
+        <v>7.4331690000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>26770.379548</v>
+        <v>26770.379548000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.436217</v>
+        <v>7.4362170000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.534000</v>
+        <v>-136.53399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>26781.343612</v>
+        <v>26781.343612000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.439262</v>
+        <v>7.4392620000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1292.610000</v>
+        <v>1292.6099999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.873000</v>
+        <v>-217.87299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>26792.632063</v>
+        <v>26792.632063000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.442398</v>
+        <v>7.4423979999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL16" s="1">
-        <v>-353.365000</v>
+        <v>-353.36500000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>26804.470606</v>
+        <v>26804.470605999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.445686</v>
+        <v>7.4456860000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1474.840000</v>
+        <v>1474.84</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-573.628000</v>
+        <v>-573.62800000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>26815.752079</v>
+        <v>26815.752079000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.448820</v>
+        <v>7.4488200000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1605.250000</v>
+        <v>1605.25</v>
       </c>
       <c r="BV16" s="1">
-        <v>-822.604000</v>
+        <v>-822.60400000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>26826.255393</v>
+        <v>26826.255392999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.451738</v>
+        <v>7.4517379999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1755.710000</v>
+        <v>1755.71</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.840000</v>
+        <v>-1092.8399999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>26838.644928</v>
+        <v>26838.644928000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.455179</v>
+        <v>7.4551790000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>2169.740000</v>
+        <v>2169.7399999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1750.490000</v>
+        <v>-1750.49</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>26665.590846</v>
+        <v>26665.590845999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.407109</v>
+        <v>7.4071090000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.560000</v>
+        <v>1144.56</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.438000</v>
+        <v>-261.43799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>26676.117351</v>
+        <v>26676.117351000001</v>
       </c>
       <c r="G17" s="1">
-        <v>7.410033</v>
+        <v>7.4100330000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.090000</v>
+        <v>1166.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.370000</v>
+        <v>-219.37</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>26686.538656</v>
+        <v>26686.538656000001</v>
       </c>
       <c r="L17" s="1">
-        <v>7.412927</v>
+        <v>7.4129269999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1194.130000</v>
+        <v>1194.1300000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.030000</v>
+        <v>-152.03</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>26696.773244</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.415770</v>
+        <v>7.4157700000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.114000</v>
+        <v>-129.114</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>26706.955615</v>
+        <v>26706.955614999999</v>
       </c>
       <c r="V17" s="1">
-        <v>7.418599</v>
+        <v>7.4185990000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.760000</v>
+        <v>-107.76</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>26717.170721</v>
+        <v>26717.170720999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.421436</v>
+        <v>7.4214359999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.344800</v>
+        <v>-90.344800000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>26727.334243</v>
+        <v>26727.334243000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.424260</v>
+        <v>7.4242600000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.570100</v>
+        <v>-85.570099999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>26737.906469</v>
+        <v>26737.906469000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.427196</v>
+        <v>7.4271960000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.560700</v>
+        <v>-88.560699999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>26748.726695</v>
+        <v>26748.726695000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.430202</v>
+        <v>7.4302020000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.198000</v>
+        <v>-100.19799999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>26759.788473</v>
+        <v>26759.788473000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.433275</v>
+        <v>7.4332750000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.267000</v>
+        <v>-119.267</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>26770.735679</v>
+        <v>26770.735679000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.436315</v>
+        <v>7.4363149999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.557000</v>
+        <v>-136.55699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>26781.703745</v>
+        <v>26781.703744999999</v>
       </c>
       <c r="BE17" s="1">
         <v>7.439362</v>
       </c>
       <c r="BF17" s="1">
-        <v>1292.570000</v>
+        <v>1292.57</v>
       </c>
       <c r="BG17" s="1">
-        <v>-217.846000</v>
+        <v>-217.846</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>26793.326957</v>
+        <v>26793.326957000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.442591</v>
+        <v>7.4425910000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1361.440000</v>
+        <v>1361.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-353.365000</v>
+        <v>-353.36500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>26804.975997</v>
+        <v>26804.975997000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.445827</v>
+        <v>7.4458270000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1474.840000</v>
+        <v>1474.84</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-573.609000</v>
+        <v>-573.60900000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>26815.876575</v>
+        <v>26815.876574999998</v>
       </c>
       <c r="BT17" s="1">
         <v>7.448855</v>
       </c>
       <c r="BU17" s="1">
-        <v>1605.150000</v>
+        <v>1605.15</v>
       </c>
       <c r="BV17" s="1">
-        <v>-822.645000</v>
+        <v>-822.64499999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>26826.685890</v>
+        <v>26826.685890000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.451857</v>
+        <v>7.4518570000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1755.810000</v>
+        <v>1755.81</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.640000</v>
+        <v>-1092.6400000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>26839.162256</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.455323</v>
+        <v>7.4553229999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2169.200000</v>
+        <v>2169.1999999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1750.870000</v>
+        <v>-1750.87</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>26666.009380</v>
+        <v>26666.00938</v>
       </c>
       <c r="B18" s="1">
-        <v>7.407225</v>
+        <v>7.4072250000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.410000</v>
+        <v>1144.4100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.319000</v>
+        <v>-261.31900000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>26676.380728</v>
       </c>
       <c r="G18" s="1">
-        <v>7.410106</v>
+        <v>7.4101059999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.860000</v>
+        <v>1165.8599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.617000</v>
+        <v>-218.61699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>26686.886985</v>
+        <v>26686.886985000001</v>
       </c>
       <c r="L18" s="1">
-        <v>7.413024</v>
+        <v>7.4130240000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.681000</v>
+        <v>-151.68100000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>26697.124907</v>
+        <v>26697.124907000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.415868</v>
+        <v>7.4158679999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.154000</v>
+        <v>-129.154</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>26707.300334</v>
       </c>
       <c r="V18" s="1">
-        <v>7.418695</v>
+        <v>7.4186949999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.802000</v>
+        <v>-107.80200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>26717.522386</v>
+        <v>26717.522386000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.421534</v>
+        <v>7.4215340000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.266800</v>
+        <v>-90.266800000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>26728.027651</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.424452</v>
+        <v>7.4244519999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.575900</v>
+        <v>-85.575900000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>26738.255653</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.427293</v>
+        <v>7.4272929999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>1227.530000</v>
+        <v>1227.53</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.575200</v>
+        <v>-88.575199999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>26749.107127</v>
+        <v>26749.107126999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.430308</v>
+        <v>7.4303080000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.236000</v>
+        <v>-100.236</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>26760.156009</v>
+        <v>26760.156008999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.433377</v>
+        <v>7.4333770000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.258000</v>
+        <v>-119.258</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>26771.398825</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.436500</v>
+        <v>7.4364999999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.552000</v>
+        <v>-136.55199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>26782.379270</v>
+        <v>26782.379270000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.439550</v>
+        <v>7.4395499999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1292.590000</v>
+        <v>1292.5899999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.856000</v>
+        <v>-217.85599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>26793.756524</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.442710</v>
+        <v>7.4427099999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1361.480000</v>
+        <v>1361.48</v>
       </c>
       <c r="BL18" s="1">
-        <v>-353.362000</v>
+        <v>-353.36200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>26805.395612</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.445943</v>
+        <v>7.4459429999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-573.658000</v>
+        <v>-573.65800000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>26816.285776</v>
+        <v>26816.285776000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.448968</v>
+        <v>7.4489679999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1605.100000</v>
+        <v>1605.1</v>
       </c>
       <c r="BV18" s="1">
-        <v>-822.572000</v>
+        <v>-822.572</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>26827.109472</v>
@@ -4818,1405 +5234,1405 @@
         <v>7.451975</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1755.680000</v>
+        <v>1755.68</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.690000</v>
+        <v>-1092.69</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>26839.716319</v>
+        <v>26839.716318999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.455477</v>
+        <v>7.4554770000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2167.510000</v>
+        <v>2167.5100000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1751.270000</v>
+        <v>-1751.27</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>26666.289620</v>
+        <v>26666.28962</v>
       </c>
       <c r="B19" s="1">
-        <v>7.407303</v>
+        <v>7.4073029999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.460000</v>
+        <v>1144.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.824000</v>
+        <v>-260.82400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>26676.725942</v>
+        <v>26676.725942000001</v>
       </c>
       <c r="G19" s="1">
         <v>7.410202</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.240000</v>
+        <v>1166.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.346000</v>
+        <v>-219.346</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>26687.227736</v>
+        <v>26687.227736000001</v>
       </c>
       <c r="L19" s="1">
         <v>7.413119</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.160000</v>
+        <v>1194.1600000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.774000</v>
+        <v>-151.774</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>26697.476603</v>
+        <v>26697.476602999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.415966</v>
+        <v>7.4159660000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.710000</v>
+        <v>1201.71</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.187000</v>
+        <v>-129.18700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>26707.986865</v>
+        <v>26707.986864999999</v>
       </c>
       <c r="V19" s="1">
-        <v>7.418885</v>
+        <v>7.4188850000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.835000</v>
+        <v>-107.83499999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>26718.224261</v>
+        <v>26718.224260999999</v>
       </c>
       <c r="AA19" s="1">
         <v>7.421729</v>
       </c>
       <c r="AB19" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.432700</v>
+        <v>-90.432699999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>26728.373860</v>
+        <v>26728.37386</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.424548</v>
+        <v>7.4245479999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.573600</v>
+        <v>-85.573599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>26738.601365</v>
+        <v>26738.601364999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.427389</v>
+        <v>7.4273889999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.569000</v>
+        <v>-88.569000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>26749.472679</v>
+        <v>26749.472678999999</v>
       </c>
       <c r="AP19" s="1">
         <v>7.430409</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.194000</v>
+        <v>-100.194</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>26760.826104</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.433563</v>
+        <v>7.4335630000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.257000</v>
+        <v>-119.25700000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>26771.813978</v>
+        <v>26771.813977999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.436615</v>
+        <v>7.4366149999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1253.200000</v>
+        <v>1253.2</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.564000</v>
+        <v>-136.56399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>26782.820699</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.439672</v>
+        <v>7.4396719999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1292.590000</v>
+        <v>1292.5899999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.872000</v>
+        <v>-217.87200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>26794.132459</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.442815</v>
+        <v>7.4428150000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL19" s="1">
-        <v>-353.376000</v>
+        <v>-353.37599999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>26805.793440</v>
+        <v>26805.793440000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.446054</v>
+        <v>7.4460540000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1474.880000</v>
+        <v>1474.88</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-573.680000</v>
+        <v>-573.67999999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>26816.866589</v>
+        <v>26816.866589000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.449130</v>
+        <v>7.4491300000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1605.050000</v>
+        <v>1605.05</v>
       </c>
       <c r="BV19" s="1">
-        <v>-822.545000</v>
+        <v>-822.54499999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>26827.546943</v>
+        <v>26827.546943000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.452096</v>
+        <v>7.4520960000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1755.710000</v>
+        <v>1755.71</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.790000</v>
+        <v>-1092.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>26840.245519</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.455624</v>
+        <v>7.4556240000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>2169.700000</v>
+        <v>2169.6999999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1751.220000</v>
+        <v>-1751.22</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>26666.632355</v>
+        <v>26666.632355000002</v>
       </c>
       <c r="B20" s="1">
-        <v>7.407398</v>
+        <v>7.4073979999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.560000</v>
+        <v>1144.56</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.334000</v>
+        <v>-261.334</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>26677.070166</v>
+        <v>26677.070166000001</v>
       </c>
       <c r="G20" s="1">
-        <v>7.410297</v>
+        <v>7.4102969999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.680000</v>
+        <v>1166.68</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.534000</v>
+        <v>-218.53399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>26687.922135</v>
+        <v>26687.922135000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.413312</v>
+        <v>7.4133120000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.889000</v>
+        <v>-151.88900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>26698.173978</v>
+        <v>26698.173977999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.416159</v>
+        <v>7.4161590000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.159000</v>
+        <v>-129.15899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>26708.330561</v>
+        <v>26708.330560999999</v>
       </c>
       <c r="V20" s="1">
-        <v>7.418981</v>
+        <v>7.4189809999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.840000</v>
+        <v>-107.84</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>26718.568447</v>
+        <v>26718.568447000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.421825</v>
+        <v>7.4218250000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.389400</v>
+        <v>-90.389399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>26728.720066</v>
+        <v>26728.720066000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.424644</v>
+        <v>7.4246439999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.542700</v>
+        <v>-85.542699999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>26739.263524</v>
+        <v>26739.263524000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.427573</v>
+        <v>7.4275729999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.585100</v>
+        <v>-88.585099999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>26750.144757</v>
+        <v>26750.144756999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.430596</v>
+        <v>7.4305960000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.225000</v>
+        <v>-100.22499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>26761.282951</v>
+        <v>26761.282951000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.433690</v>
+        <v>7.4336900000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.248000</v>
+        <v>-119.248</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>26772.202376</v>
+        <v>26772.202376000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.436723</v>
+        <v>7.4367229999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1253.220000</v>
+        <v>1253.22</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.535000</v>
+        <v>-136.535</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>26783.179306</v>
+        <v>26783.179306000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.439772</v>
+        <v>7.4397719999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1292.570000</v>
+        <v>1292.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.868000</v>
+        <v>-217.86799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>26794.507436</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.442919</v>
+        <v>7.4429189999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL20" s="1">
-        <v>-353.360000</v>
+        <v>-353.36</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>26806.222445</v>
+        <v>26806.222444999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.446173</v>
+        <v>7.4461729999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1474.840000</v>
+        <v>1474.84</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-573.677000</v>
+        <v>-573.67700000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>26817.130957</v>
+        <v>26817.130957000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.449203</v>
+        <v>7.4492029999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1605.010000</v>
+        <v>1605.01</v>
       </c>
       <c r="BV20" s="1">
-        <v>-822.493000</v>
+        <v>-822.49300000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>26827.956640</v>
+        <v>26827.95664</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.452210</v>
+        <v>7.45221</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1755.690000</v>
+        <v>1755.69</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.690000</v>
+        <v>-1092.69</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>26840.763376</v>
+        <v>26840.763375999999</v>
       </c>
       <c r="CD20" s="1">
         <v>7.455768</v>
       </c>
       <c r="CE20" s="1">
-        <v>2168.480000</v>
+        <v>2168.48</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1751.330000</v>
+        <v>-1751.33</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>26666.973878</v>
+        <v>26666.973878000001</v>
       </c>
       <c r="B21" s="1">
-        <v>7.407493</v>
+        <v>7.4074929999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.510000</v>
+        <v>1144.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.321000</v>
+        <v>-261.32100000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>26677.762085</v>
+        <v>26677.762084999998</v>
       </c>
       <c r="G21" s="1">
-        <v>7.410489</v>
+        <v>7.4104890000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.890000</v>
+        <v>1166.8900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.876000</v>
+        <v>-218.876</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>26688.266887</v>
+        <v>26688.266887000002</v>
       </c>
       <c r="L21" s="1">
-        <v>7.413407</v>
+        <v>7.4134070000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.820000</v>
+        <v>1193.82</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.624000</v>
+        <v>-151.624</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>26698.520154</v>
+        <v>26698.520154000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.416256</v>
+        <v>7.4162559999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.690000</v>
+        <v>1201.69</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.124000</v>
+        <v>-129.124</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>26708.673756</v>
       </c>
       <c r="V21" s="1">
-        <v>7.419076</v>
+        <v>7.4190759999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.751000</v>
+        <v>-107.751</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>26719.234574</v>
+        <v>26719.234573999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.422010</v>
+        <v>7.4220100000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.490400</v>
+        <v>-90.490399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>26729.377796</v>
+        <v>26729.377796000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.424827</v>
+        <v>7.4248269999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.534700</v>
+        <v>-85.534700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>26739.648915</v>
+        <v>26739.648915000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.427680</v>
+        <v>7.4276799999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1227.570000</v>
+        <v>1227.57</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.562700</v>
+        <v>-88.562700000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>26750.548501</v>
+        <v>26750.548501000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.430708</v>
+        <v>7.4307080000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.217000</v>
+        <v>-100.217</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>26761.648968</v>
+        <v>26761.648968000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.433791</v>
+        <v>7.4337910000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.246000</v>
+        <v>-119.246</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>26772.560456</v>
+        <v>26772.560455999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.436822</v>
+        <v>7.4368220000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1253.200000</v>
+        <v>1253.2</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.564000</v>
+        <v>-136.56399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>26783.537930</v>
+        <v>26783.537929999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.439872</v>
+        <v>7.4398720000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.850000</v>
+        <v>-217.85</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>26794.926058</v>
+        <v>26794.926058000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.443035</v>
+        <v>7.4430350000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-353.397000</v>
+        <v>-353.39699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>26806.613291</v>
+        <v>26806.613291000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.446281</v>
+        <v>7.4462809999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1474.850000</v>
+        <v>1474.85</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-573.626000</v>
+        <v>-573.62599999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>26817.548092</v>
+        <v>26817.548092000001</v>
       </c>
       <c r="BT21" s="1">
         <v>7.449319</v>
       </c>
       <c r="BU21" s="1">
-        <v>1605.050000</v>
+        <v>1605.05</v>
       </c>
       <c r="BV21" s="1">
-        <v>-822.477000</v>
+        <v>-822.47699999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>26828.373774</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.452326</v>
+        <v>7.4523260000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1755.700000</v>
+        <v>1755.7</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>26841.316915</v>
+        <v>26841.316914999999</v>
       </c>
       <c r="CD21" s="1">
         <v>7.455921</v>
       </c>
       <c r="CE21" s="1">
-        <v>2167.450000</v>
+        <v>2167.4499999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1750.790000</v>
+        <v>-1750.79</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>26667.659603</v>
       </c>
       <c r="B22" s="1">
-        <v>7.407683</v>
+        <v>7.4076829999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.258000</v>
+        <v>-261.25799999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>26678.106308</v>
+        <v>26678.106307999999</v>
       </c>
       <c r="G22" s="1">
-        <v>7.410585</v>
+        <v>7.4105850000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.570000</v>
+        <v>1166.57</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.799000</v>
+        <v>-218.79900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>26688.613064</v>
+        <v>26688.613064000001</v>
       </c>
       <c r="L22" s="1">
-        <v>7.413504</v>
+        <v>7.4135039999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.170000</v>
+        <v>1194.17</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.506000</v>
+        <v>-151.506</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>26698.868346</v>
+        <v>26698.868345999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.416352</v>
+        <v>7.4163519999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.099000</v>
+        <v>-129.09899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>26709.318557</v>
+        <v>26709.318556999999</v>
       </c>
       <c r="V22" s="1">
-        <v>7.419255</v>
+        <v>7.4192549999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1208.770000</v>
+        <v>1208.77</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.940000</v>
+        <v>-107.94</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>26719.613518</v>
+        <v>26719.613517999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.422115</v>
+        <v>7.4221149999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1216.260000</v>
+        <v>1216.26</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.244000</v>
+        <v>-90.244</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>26729.752736</v>
+        <v>26729.752735999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.424931</v>
+        <v>7.4249309999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1220.720000</v>
+        <v>1220.72</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.544600</v>
+        <v>-85.544600000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>26739.998595</v>
+        <v>26739.998595000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.427777</v>
+        <v>7.4277769999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1227.530000</v>
+        <v>1227.53</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.590700</v>
+        <v>-88.590699999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>26750.952740</v>
+        <v>26750.952740000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.430820</v>
+        <v>7.4308199999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.237000</v>
+        <v>-100.23699999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>26762.013527</v>
+        <v>26762.013526999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.433893</v>
+        <v>7.4338930000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.260000</v>
+        <v>-119.26</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>26772.983048</v>
+        <v>26772.983047999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.436940</v>
+        <v>7.4369399999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.520000</v>
+        <v>-136.52000000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>26784.262105</v>
+        <v>26784.262105000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.440073</v>
+        <v>7.4400729999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1292.590000</v>
+        <v>1292.5899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-217.856000</v>
+        <v>-217.85599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>26795.287180</v>
+        <v>26795.287179999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.443135</v>
+        <v>7.4431349999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1361.490000</v>
+        <v>1361.49</v>
       </c>
       <c r="BL22" s="1">
-        <v>-353.363000</v>
+        <v>-353.363</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>26807.033435</v>
+        <v>26807.033435000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.446398</v>
+        <v>7.4463980000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1474.850000</v>
+        <v>1474.85</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-573.644000</v>
+        <v>-573.64400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>26817.962284</v>
+        <v>26817.962284000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.449434</v>
+        <v>7.4494340000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1604.950000</v>
+        <v>1604.95</v>
       </c>
       <c r="BV22" s="1">
-        <v>-822.250000</v>
+        <v>-822.25</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>26828.819213</v>
+        <v>26828.819212999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.452450</v>
+        <v>7.4524499999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1755.690000</v>
+        <v>1755.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.620000</v>
+        <v>-1092.6199999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>26841.845155</v>
+        <v>26841.845154999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.456068</v>
+        <v>7.4560680000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2169.270000</v>
+        <v>2169.27</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1751.130000</v>
+        <v>-1751.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>26667.999330</v>
+        <v>26667.999329999999</v>
       </c>
       <c r="B23" s="1">
-        <v>7.407778</v>
+        <v>7.4077780000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.730000</v>
+        <v>1144.73</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.955000</v>
+        <v>-260.95499999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>26678.457973</v>
       </c>
       <c r="G23" s="1">
-        <v>7.410683</v>
+        <v>7.4106829999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.168000</v>
+        <v>-219.16800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>26689.267783</v>
+        <v>26689.267782999999</v>
       </c>
       <c r="L23" s="1">
-        <v>7.413685</v>
+        <v>7.4136850000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.530000</v>
+        <v>1193.53</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.765000</v>
+        <v>-151.76499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>26699.531033</v>
+        <v>26699.531032999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.416536</v>
+        <v>7.4165359999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.177000</v>
+        <v>-129.17699999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>26709.702462</v>
+        <v>26709.702462000001</v>
       </c>
       <c r="V23" s="1">
-        <v>7.419362</v>
+        <v>7.4193619999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.735000</v>
+        <v>-107.735</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>26719.960719</v>
+        <v>26719.960718999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.422211</v>
+        <v>7.4222109999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1216.220000</v>
+        <v>1216.22</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.240600</v>
+        <v>-90.240600000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>26730.094480</v>
+        <v>26730.09448</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.425026</v>
+        <v>7.4250259999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1220.740000</v>
+        <v>1220.74</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.577400</v>
+        <v>-85.577399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>26740.348770</v>
+        <v>26740.348770000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.427875</v>
+        <v>7.4278750000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.588000</v>
+        <v>-88.587999999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>26751.374340</v>
+        <v>26751.374339999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.430937</v>
+        <v>7.4309370000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1235.220000</v>
+        <v>1235.22</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.217000</v>
+        <v>-100.217</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>26762.435621</v>
+        <v>26762.435621000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.434010</v>
+        <v>7.4340099999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.238000</v>
+        <v>-119.238</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>26773.277703</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.437022</v>
+        <v>7.4370219999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1253.230000</v>
+        <v>1253.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.555000</v>
+        <v>-136.55500000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>26784.647464</v>
+        <v>26784.647464000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.440180</v>
+        <v>7.4401799999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.861000</v>
+        <v>-217.86099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>26795.662384</v>
+        <v>26795.662383999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.443240</v>
+        <v>7.4432400000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1361.430000</v>
+        <v>1361.43</v>
       </c>
       <c r="BL23" s="1">
-        <v>-353.361000</v>
+        <v>-353.36099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>26807.428023</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.446508</v>
+        <v>7.4465079999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1474.870000</v>
+        <v>1474.87</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-573.648000</v>
+        <v>-573.64800000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>26818.396781</v>
+        <v>26818.396780999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.449555</v>
+        <v>7.4495550000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1604.900000</v>
+        <v>1604.9</v>
       </c>
       <c r="BV23" s="1">
-        <v>-822.255000</v>
+        <v>-822.255</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>26829.242765</v>
+        <v>26829.242764999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.452567</v>
+        <v>7.4525670000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1755.560000</v>
+        <v>1755.56</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.620000</v>
+        <v>-1092.6199999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>26842.364952</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.456212</v>
+        <v>7.4562119999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2169.180000</v>
+        <v>2169.1799999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1749.400000</v>
+        <v>-1749.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>26668.345537</v>
+        <v>26668.345537000001</v>
       </c>
       <c r="B24" s="1">
-        <v>7.407874</v>
+        <v>7.4078739999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.780000</v>
+        <v>1144.78</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.159000</v>
+        <v>-261.15899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>26679.110707</v>
       </c>
       <c r="G24" s="1">
-        <v>7.410864</v>
+        <v>7.4108640000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.930000</v>
+        <v>1165.93</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.065000</v>
+        <v>-219.065</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>26689.649238</v>
+        <v>26689.649238000002</v>
       </c>
       <c r="L24" s="1">
-        <v>7.413791</v>
+        <v>7.4137909999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.880000</v>
+        <v>1193.8800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.820000</v>
+        <v>-151.82</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>26699.915400</v>
+        <v>26699.915400000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.416643</v>
+        <v>7.4166429999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.177000</v>
+        <v>-129.17699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>26710.047178</v>
+        <v>26710.047178000001</v>
       </c>
       <c r="V24" s="1">
-        <v>7.419458</v>
+        <v>7.4194579999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.953000</v>
+        <v>-107.953</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>26720.308909</v>
+        <v>26720.308908999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.422308</v>
+        <v>7.4223080000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.244800</v>
+        <v>-90.244799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>26730.438241</v>
@@ -6225,13 +6641,13 @@
         <v>7.425122</v>
       </c>
       <c r="AG24" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.595800</v>
+        <v>-85.595799999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>26740.778306</v>
@@ -6240,664 +6656,665 @@
         <v>7.427994</v>
       </c>
       <c r="AL24" s="1">
-        <v>1227.540000</v>
+        <v>1227.54</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.567100</v>
+        <v>-88.567099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>26751.662019</v>
+        <v>26751.662018999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.431017</v>
+        <v>7.4310169999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.202000</v>
+        <v>-100.202</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>26762.740697</v>
+        <v>26762.740697000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.434095</v>
+        <v>7.4340950000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.258000</v>
+        <v>-119.258</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>26773.637302</v>
+        <v>26773.637301999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.437121</v>
+        <v>7.4371210000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1253.230000</v>
+        <v>1253.23</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.547000</v>
+        <v>-136.547</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>26785.030135</v>
+        <v>26785.030135000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.440286</v>
+        <v>7.4402860000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.872000</v>
+        <v>-217.87200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>26796.038613</v>
+        <v>26796.038613000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.443344</v>
+        <v>7.4433439999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1361.520000</v>
+        <v>1361.52</v>
       </c>
       <c r="BL24" s="1">
-        <v>-353.361000</v>
+        <v>-353.36099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>26807.857791</v>
+        <v>26807.857790999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.446627</v>
+        <v>7.4466270000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1474.820000</v>
+        <v>1474.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-573.682000</v>
+        <v>-573.68200000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>26818.828794</v>
+        <v>26818.828794000001</v>
       </c>
       <c r="BT24" s="1">
         <v>7.449675</v>
       </c>
       <c r="BU24" s="1">
-        <v>1604.920000</v>
+        <v>1604.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-822.213000</v>
+        <v>-822.21299999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>26829.664396</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.452685</v>
+        <v>7.4526849999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1755.680000</v>
+        <v>1755.68</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.650000</v>
+        <v>-1092.6500000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>26842.881260</v>
+        <v>26842.881259999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.456356</v>
+        <v>7.4563560000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>2167.730000</v>
+        <v>2167.73</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1749.370000</v>
+        <v>-1749.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>26669.046880</v>
+        <v>26669.046880000002</v>
       </c>
       <c r="B25" s="1">
-        <v>7.408069</v>
+        <v>7.4080690000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.420000</v>
+        <v>1144.42</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.996000</v>
+        <v>-260.99599999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>26679.490677</v>
+        <v>26679.490677000002</v>
       </c>
       <c r="G25" s="1">
-        <v>7.410970</v>
+        <v>7.4109699999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.694000</v>
+        <v>-218.69399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>26689.996405</v>
+        <v>26689.996405000002</v>
       </c>
       <c r="L25" s="1">
         <v>7.413888</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.560000</v>
+        <v>1193.56</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.880000</v>
+        <v>-151.88</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>26700.263593</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.416740</v>
+        <v>7.4167399999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.180000</v>
+        <v>-129.18</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>26710.394410</v>
+        <v>26710.394410000001</v>
       </c>
       <c r="V25" s="1">
-        <v>7.419554</v>
+        <v>7.4195539999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.874000</v>
+        <v>-107.874</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>26720.733020</v>
+        <v>26720.73302</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.422426</v>
+        <v>7.4224259999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.286300</v>
+        <v>-90.286299999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>26730.871216</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.425242</v>
+        <v>7.4252419999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1220.670000</v>
+        <v>1220.67</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.519600</v>
+        <v>-85.519599999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>26741.054115</v>
+        <v>26741.054114999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.428071</v>
+        <v>7.4280710000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1227.550000</v>
+        <v>1227.55</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.558500</v>
+        <v>-88.558499999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>26752.023139</v>
+        <v>26752.023139000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.431118</v>
+        <v>7.4311179999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1235.220000</v>
+        <v>1235.22</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.186000</v>
+        <v>-100.18600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>26763.106212</v>
+        <v>26763.106211999999</v>
       </c>
       <c r="AU25" s="1">
         <v>7.434196</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.264000</v>
+        <v>-119.264</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>26773.997668</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.437222</v>
+        <v>7.4372220000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.551000</v>
+        <v>-136.55099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>26785.752055</v>
+        <v>26785.752055000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.440487</v>
+        <v>7.4404870000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1292.600000</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-217.841000</v>
+        <v>-217.84100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>26796.787049</v>
+        <v>26796.787048999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.443552</v>
+        <v>7.4435520000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-353.385000</v>
+        <v>-353.38499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>26808.258559</v>
+        <v>26808.258559000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.446738</v>
+        <v>7.4467379999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-573.621000</v>
+        <v>-573.62099999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>26819.240938</v>
+        <v>26819.240937999999</v>
       </c>
       <c r="BT25" s="1">
         <v>7.449789</v>
       </c>
       <c r="BU25" s="1">
-        <v>1604.830000</v>
+        <v>1604.83</v>
       </c>
       <c r="BV25" s="1">
-        <v>-822.146000</v>
+        <v>-822.14599999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>26830.117722</v>
+        <v>26830.117721999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.452810</v>
+        <v>7.4528100000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1755.770000</v>
+        <v>1755.77</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>26843.706602</v>
+        <v>26843.706601999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.456585</v>
+        <v>7.4565849999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>2168.070000</v>
+        <v>2168.0700000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1751.330000</v>
+        <v>-1751.33</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>26669.372752</v>
+        <v>26669.372751999999</v>
       </c>
       <c r="B26" s="1">
-        <v>7.408159</v>
+        <v>7.4081590000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.400000</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.204000</v>
+        <v>-261.20400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>26679.835892</v>
+        <v>26679.835891999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.411066</v>
+        <v>7.4110659999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.270000</v>
+        <v>1166.27</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.715000</v>
+        <v>-218.715</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>26690.340132</v>
+        <v>26690.340132000001</v>
       </c>
       <c r="L26" s="1">
         <v>7.413983</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.940000</v>
+        <v>1193.94</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.822000</v>
+        <v>-151.822</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>26700.604160</v>
+        <v>26700.604159999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.416834</v>
+        <v>7.4168339999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.144000</v>
+        <v>-129.14400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>26710.820017</v>
+        <v>26710.820016999998</v>
       </c>
       <c r="V26" s="1">
-        <v>7.419672</v>
+        <v>7.4196720000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.827000</v>
+        <v>-107.827</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>26721.022190</v>
+        <v>26721.02219</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.422506</v>
+        <v>7.4225060000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.145500</v>
+        <v>-90.145499999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>26731.132607</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.425315</v>
+        <v>7.4253150000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.570900</v>
+        <v>-85.570899999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>26741.406769</v>
+        <v>26741.406769000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.428169</v>
+        <v>7.4281689999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1227.560000</v>
+        <v>1227.56</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.563300</v>
+        <v>-88.563299999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>26752.382785</v>
+        <v>26752.382785000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.431217</v>
+        <v>7.4312170000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.219000</v>
+        <v>-100.21899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>26763.472260</v>
+        <v>26763.472259999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.434298</v>
+        <v>7.4342980000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.267000</v>
+        <v>-119.267</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>26774.718553</v>
+        <v>26774.718552999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.437422</v>
+        <v>7.4374219999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1253.250000</v>
+        <v>1253.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.554000</v>
+        <v>-136.554</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>26786.112647</v>
+        <v>26786.112647000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.440587</v>
+        <v>7.4405869999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1292.580000</v>
+        <v>1292.58</v>
       </c>
       <c r="BG26" s="1">
-        <v>-217.864000</v>
+        <v>-217.864</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>26797.165001</v>
+        <v>26797.165001000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>7.443657</v>
       </c>
       <c r="BK26" s="1">
-        <v>1361.470000</v>
+        <v>1361.47</v>
       </c>
       <c r="BL26" s="1">
-        <v>-353.408000</v>
+        <v>-353.40800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>26808.670200</v>
+        <v>26808.6702</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.446853</v>
+        <v>7.4468529999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1474.860000</v>
+        <v>1474.86</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-573.655000</v>
+        <v>-573.65499999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>26819.980505</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.449995</v>
+        <v>7.4499950000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1604.940000</v>
+        <v>1604.94</v>
       </c>
       <c r="BV26" s="1">
-        <v>-822.036000</v>
+        <v>-822.03599999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>26830.865179</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.453018</v>
+        <v>7.4530180000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1755.640000</v>
+        <v>1755.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.710000</v>
+        <v>-1092.71</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>26843.919412</v>
+        <v>26843.919411999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.456644</v>
+        <v>7.4566439999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>2169.550000</v>
+        <v>2169.5500000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1750.850000</v>
+        <v>-1750.85</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>